--- a/src/test/resources/Excel_Register/programdata.xlsx
+++ b/src/test/resources/Excel_Register/programdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viru\Desktop\Projects\Z_DS-Algo_BDD_change\src\test\resources\Excel_Register\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\subas\eclipse-workspace23\DSALGOPRO\src\test\resources\Excel_Register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28825059-43E1-4609-BB6F-287D146A8FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA243C3-EDFC-40A1-9B7A-13872540E661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1187E97C-4FC6-473D-A76D-2E0F198AD0D7}"/>
+    <workbookView xWindow="-23835" yWindow="5145" windowWidth="17280" windowHeight="8880" xr2:uid="{1187E97C-4FC6-473D-A76D-2E0F198AD0D7}"/>
   </bookViews>
   <sheets>
     <sheet name="array" sheetId="1" r:id="rId1"/>
@@ -407,12 +407,13 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.36328125" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,7 +421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -428,7 +429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -449,12 +450,12 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.36328125" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,7 +463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -470,7 +471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -478,7 +479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -486,7 +487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -494,7 +495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -502,7 +503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -510,7 +511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -518,7 +519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -526,7 +527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -534,7 +535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
